--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_37_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_37_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,496 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_37_8_8</t>
+          <t>model_37_8_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9274421957379345</v>
+        <v>0.9851490354040366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7308505111480552</v>
+        <v>0.7153112387386535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7592786125353367</v>
+        <v>0.9716377694997238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8998329000752348</v>
+        <v>0.9087309774898725</v>
       </c>
       <c r="F2" t="n">
-        <v>0.887306897855207</v>
+        <v>0.9628155779462685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4851943711984004</v>
+        <v>0.09930846863561132</v>
       </c>
       <c r="H2" t="n">
-        <v>1.799803871272395</v>
+        <v>1.903715057425835</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3524284800271634</v>
+        <v>0.3482320956968335</v>
       </c>
       <c r="J2" t="n">
-        <v>1.28045078925516</v>
+        <v>0.2028043844131734</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8164398624662259</v>
+        <v>0.2755182400550035</v>
       </c>
       <c r="L2" t="n">
-        <v>1.736762723746658</v>
+        <v>0.3327214108374977</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6965589502679586</v>
+        <v>0.3151324620466945</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015410507099908</v>
+        <v>1.006724965100059</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7262129068566724</v>
+        <v>0.3285483033701492</v>
       </c>
       <c r="P2" t="n">
-        <v>275.4464114059442</v>
+        <v>158.6190488564559</v>
       </c>
       <c r="Q2" t="n">
-        <v>442.4323994128877</v>
+        <v>252.4724873713073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_37_8_7</t>
+          <t>model_37_8_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9272335387097254</v>
+        <v>0.9852745551014029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.730653140015442</v>
+        <v>0.7147476928712413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7596728280648729</v>
+        <v>0.9725311792101542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9013277210749077</v>
+        <v>0.9135298952544177</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8886655414742459</v>
+        <v>0.9642753748864016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4865896617068121</v>
+        <v>0.09846911784135771</v>
       </c>
       <c r="H3" t="n">
-        <v>1.80112369294499</v>
+        <v>1.90748349123611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3518513282362867</v>
+        <v>0.3372627914393263</v>
       </c>
       <c r="J3" t="n">
-        <v>1.261342272284378</v>
+        <v>0.1921409464106459</v>
       </c>
       <c r="K3" t="n">
-        <v>0.806596750613261</v>
+        <v>0.2647018642296113</v>
       </c>
       <c r="L3" t="n">
-        <v>1.742009297471857</v>
+        <v>0.3509989563307315</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6975597907755379</v>
+        <v>0.3137978933029311</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015454823636873</v>
+        <v>1.006668125991818</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7272563552166846</v>
+        <v>0.3271569192720257</v>
       </c>
       <c r="P3" t="n">
-        <v>275.4406681896741</v>
+        <v>158.6360246088328</v>
       </c>
       <c r="Q3" t="n">
-        <v>442.4266561966176</v>
+        <v>252.4894631236842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_37_8_6</t>
+          <t>model_37_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.927007302439331</v>
+        <v>0.9853268455878741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7304375898520353</v>
+        <v>0.714058639984575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7600231675207662</v>
+        <v>0.9734278105867928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9028153523486102</v>
+        <v>0.9186730042451628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8900133357125377</v>
+        <v>0.96578944987825</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4881025046886607</v>
+        <v>0.0981194511175493</v>
       </c>
       <c r="H4" t="n">
-        <v>1.802565077880208</v>
+        <v>1.912091191062045</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3513384132716696</v>
+        <v>0.3262539314925959</v>
       </c>
       <c r="J4" t="n">
-        <v>1.242325662639457</v>
+        <v>0.1807126980942778</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7968322404382736</v>
+        <v>0.2534833147934368</v>
       </c>
       <c r="L4" t="n">
-        <v>1.74798613467693</v>
+        <v>0.3713472789629476</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6986433315280843</v>
+        <v>0.3132402450477098</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015502873818195</v>
+        <v>1.006644447280963</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7283860245423056</v>
+        <v>0.3265755307760886</v>
       </c>
       <c r="P4" t="n">
-        <v>275.43445968919</v>
+        <v>158.6431393071981</v>
       </c>
       <c r="Q4" t="n">
-        <v>442.4204476961335</v>
+        <v>252.4965778220495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_37_8_5</t>
+          <t>model_37_8_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9267631881485416</v>
+        <v>0.9852771325524066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7302032420063284</v>
+        <v>0.7132140019360931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7603280363068358</v>
+        <v>0.9743045231237351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9042956473437294</v>
+        <v>0.9241596212350096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.891350126007972</v>
+        <v>0.9673385305499899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4897348980752128</v>
+        <v>0.09845188241462814</v>
       </c>
       <c r="H5" t="n">
-        <v>1.804132163003523</v>
+        <v>1.917739289581443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3508920697040545</v>
+        <v>0.3154896355018391</v>
       </c>
       <c r="J5" t="n">
-        <v>1.22340283372403</v>
+        <v>0.1685211576292392</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7871474517140421</v>
+        <v>0.2420053905227773</v>
       </c>
       <c r="L5" t="n">
-        <v>1.754066062511353</v>
+        <v>0.3940105029725637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6998106158634726</v>
+        <v>0.3137704294777125</v>
       </c>
       <c r="N5" t="n">
-        <v>1.015554721101195</v>
+        <v>1.006666958844193</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7296030025884631</v>
+        <v>0.3271282862549096</v>
       </c>
       <c r="P5" t="n">
-        <v>275.4277821172405</v>
+        <v>158.6363747071311</v>
       </c>
       <c r="Q5" t="n">
-        <v>442.413770124184</v>
+        <v>252.4898132219825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_37_8_4</t>
+          <t>model_37_8_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9265005726129835</v>
+        <v>0.9850885079487884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7299495636919526</v>
+        <v>0.7121760737405824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.760585954002122</v>
+        <v>0.9751297803335031</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9057676853303864</v>
+        <v>0.9299810946332032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8926748668061573</v>
+        <v>0.9688951875729098</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4914910093707239</v>
+        <v>0.0997132160075594</v>
       </c>
       <c r="H6" t="n">
-        <v>1.805828511059834</v>
+        <v>1.924679920204043</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3505144649457936</v>
+        <v>0.3053571091603842</v>
       </c>
       <c r="J6" t="n">
-        <v>1.204585555363727</v>
+        <v>0.1555855492877856</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7775499592811499</v>
+        <v>0.2304713292240849</v>
       </c>
       <c r="L6" t="n">
-        <v>1.760261754887112</v>
+        <v>0.419269062411017</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7010641977527621</v>
+        <v>0.3157739951413976</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01561049785211</v>
+        <v>1.006752373759039</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7309099520540518</v>
+        <v>0.3292171478568505</v>
       </c>
       <c r="P6" t="n">
-        <v>275.4206232635772</v>
+        <v>158.610914106101</v>
       </c>
       <c r="Q6" t="n">
-        <v>442.4066112705207</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>model_37_8_3</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9262189729615005</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7296758936988549</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.760794170254405</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9072311386262299</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8939870022481688</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4933740675368378</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.807658543563814</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3502096256538557</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.185878016370301</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.7680437902306564</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.766570577266693</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.7024059136545178</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.015670306627646</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.73230878757948</v>
-      </c>
-      <c r="P7" t="n">
-        <v>275.4129752699386</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>442.3989632768821</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_37_8_2</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9259177089374524</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7293816242639735</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7609507963963441</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9086849895628945</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8952854370601422</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4953886214528408</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.809626324629853</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3499803169342711</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.167293225748334</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.7586368796111682</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.772995596927864</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.703838491028191</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.01573429190709</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.7338023527377945</v>
-      </c>
-      <c r="P8" t="n">
-        <v>275.4048254611886</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>442.3908134681321</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_37_8_1</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.925596201549255</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7290660739697059</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7610529141145776</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9101288543929018</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8965696316787422</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4975385428381218</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.811736410900595</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3498308113477508</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.14883608899835</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7493331364553321</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.779544679254507</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7053641207476616</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.015802576662105</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.735392931672912</v>
-      </c>
-      <c r="P9" t="n">
-        <v>275.3961645046858</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>442.3821525116293</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_37_8_0</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9252539625193719</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7287286093597245</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7610990370243307</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9115622454627711</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.897838826706436</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4998270968068161</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.813993038301422</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3497632850379788</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.13051283986661</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.7401380624522943</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.78621913683787</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7069845095946701</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.015875264597655</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.7370823038278049</v>
-      </c>
-      <c r="P10" t="n">
-        <v>275.3869860935022</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>442.3729741004457</v>
+        <v>252.4643526209524</v>
       </c>
     </row>
   </sheetData>
